--- a/biology/Zoologie/Aculeorhynchus_glandulis/Aculeorhynchus_glandulis.xlsx
+++ b/biology/Zoologie/Aculeorhynchus_glandulis/Aculeorhynchus_glandulis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aculeorhynchus, Aculeorhynchidae
 Aculeorhynchus glandulis, unique représentant du genre Aculeorhynchus et de la famille des Aculeorhynchidae, est une espèce de vers plats marins de l'ordre des Rhabdocoela (infra-ordre des Eukalyptorhynchia  et sous-ordre des Kalyptorhynchia). Elle a été découverte sur la côte de la mer du Nord, sur de l'île de Sylt en Allemagne.
@@ -512,12 +524,14 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les noms valides complets (avec auteur) de ces taxons sont :
-pour la famille :  Aculeorhynchidae Schilke, 1969[1]
-pour l'unique genre : Aculeorhynchus Schilke, 1969[1]
-pour l'unique espèce : Aculeorhynchus glandulis Schilke, 1969[1].</t>
+pour la famille :  Aculeorhynchidae Schilke, 1969
+pour l'unique genre : Aculeorhynchus Schilke, 1969
+pour l'unique espèce : Aculeorhynchus glandulis Schilke, 1969.</t>
         </is>
       </c>
     </row>
